--- a/game/201910_TR_1.xlsx
+++ b/game/201910_TR_1.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TR" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KIN" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="n">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="K1" t="inlineStr">
         <is>
@@ -537,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>271</v>
+        <v>380</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -614,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>289</v>
+        <v>216</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -691,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -768,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>262</v>
+        <v>478</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -845,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -922,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -999,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1076,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>297</v>
+        <v>393</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1153,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>210</v>
+        <v>317</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1230,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1307,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1384,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>201</v>
+        <v>407</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1538,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -2344,6 +2345,73 @@
       </c>
       <c r="U25" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0         0.000000
+1      1179.998169
+2      1668.824341
+3      2369.996582
+4      3558.780273
+5      4737.009766
+6      5914.373047
+7      7090.696289
+8      8266.035156
+9      9440.337891
+10    10613.570312
+11    11785.795898
+12    12957.068359
+13    14127.428711
+14    15253.476562
+15    16310.767578
+16    17420.830078
+Name: FOPT, dtype: float64</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>0         0.000000
+1      1179.998169
+2      1668.824341
+3      2369.996582
+4      3558.780273
+5      4737.009766
+6      5914.373047
+7      7090.696289
+8      8266.035156
+9      9440.337891
+10    10613.570312
+11    11785.795898
+12    12957.068359
+13    14127.428711
+14    15253.476562
+15    16310.767578
+16    17420.830078
+Name: FOPT, dtype: float64</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/game/201910_TR_1.xlsx
+++ b/game/201910_TR_1.xlsx
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="K1" t="inlineStr">
         <is>
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="L1" t="n">
-        <v>368.4183888154871</v>
+        <v>400</v>
       </c>
       <c r="M1" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>380</v>
+        <v>242</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>368.4938605813419</v>
+        <v>400</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>216</v>
+        <v>308</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>367.5408594468061</v>
+        <v>400</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>270</v>
+        <v>391</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>369.7503285127527</v>
+        <v>400</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>368.2090795180377</v>
+        <v>400</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>369.4854000315947</v>
+        <v>400</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -931,16 +931,16 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>164.6001685647404</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>161.6625568165499</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>161.6625568165499</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>161.66255681655</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>15</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>211</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>181.9386345358456</v>
+        <v>170</v>
       </c>
       <c r="M8" t="n">
-        <v>67.21107729743508</v>
+        <v>82.03439483642578</v>
       </c>
       <c r="N8" t="n">
-        <v>67.21107729743508</v>
+        <v>82.03439483642578</v>
       </c>
       <c r="O8" t="n">
-        <v>67.21107729745253</v>
+        <v>82.03439483642578</v>
       </c>
       <c r="P8" t="n">
         <v>15</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>393</v>
+        <v>321</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1085,16 +1085,16 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>236.5888393626494</v>
+        <v>258.9147109985352</v>
       </c>
       <c r="M9" t="n">
-        <v>188.2352941176471</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>188.2352941176471</v>
+        <v>200</v>
       </c>
       <c r="O9" t="n">
-        <v>188.2352941176472</v>
+        <v>200</v>
       </c>
       <c r="P9" t="n">
         <v>15</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>317</v>
+        <v>446</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1162,16 +1162,16 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>225.4720566693474</v>
+        <v>246.9776008605957</v>
       </c>
       <c r="M10" t="n">
-        <v>188.2352941176471</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>188.2352941176471</v>
+        <v>200</v>
       </c>
       <c r="O10" t="n">
-        <v>188.2352941176472</v>
+        <v>200</v>
       </c>
       <c r="P10" t="n">
         <v>15</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1239,16 +1239,16 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>233.6502488080193</v>
+        <v>256.1896461486816</v>
       </c>
       <c r="M11" t="n">
-        <v>188.2352941176471</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>188.2352941176471</v>
+        <v>200</v>
       </c>
       <c r="O11" t="n">
-        <v>188.2352941176472</v>
+        <v>200</v>
       </c>
       <c r="P11" t="n">
         <v>15</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1316,16 +1316,16 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>268.7838511747473</v>
+        <v>291.9378799438476</v>
       </c>
       <c r="M12" t="n">
-        <v>150.586643892176</v>
+        <v>159.998657989502</v>
       </c>
       <c r="N12" t="n">
-        <v>150.5882352941177</v>
+        <v>160</v>
       </c>
       <c r="O12" t="n">
-        <v>150.5898268832003</v>
+        <v>160.0013414941786</v>
       </c>
       <c r="P12" t="n">
         <v>15</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>407</v>
+        <v>209</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>238.2745110006893</v>
+        <v>258.691535949707</v>
       </c>
       <c r="M13" t="n">
-        <v>150.5882227280561</v>
+        <v>160</v>
       </c>
       <c r="N13" t="n">
-        <v>150.5882227280561</v>
+        <v>160</v>
       </c>
       <c r="O13" t="n">
-        <v>150.5882227280562</v>
+        <v>160</v>
       </c>
       <c r="P13" t="n">
         <v>15</v>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PS8</t>
+          <t>newPS6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>462</v>
+        <v>379</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1470,16 +1470,16 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>47.05882352941177</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.003408347256481647</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.006816694512963295</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>15</v>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PS9</t>
+          <t>newPS7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>294</v>
+        <v>475</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1547,16 +1547,16 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>44.11764705882353</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0002728787199677808</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.005730641896233839</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01118840518243172</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>15</v>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>I6</t>
+          <t>newPS8</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>369.4854000315947</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2370,22 +2370,43 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>0         0.000000
-1      1179.998169
-2      1668.824341
-3      2369.996582
-4      3558.780273
-5      4737.009766
-6      5914.373047
-7      7090.696289
-8      8266.035156
-9      9440.337891
-10    10613.570312
-11    11785.795898
-12    12957.068359
-13    14127.428711
-14    15253.476562
-15    16310.767578
-16    17420.830078
+1      1179.998901
+2      1885.308594
+3      2369.997559
+4      3564.996338
+5      4760.819824
+6      5911.552246
+7      7062.550781
+8      8213.534180
+9      9364.370117
+10    10541.135742
+11    11717.394531
+12    12893.235352
+13    14068.675781
+14    15070.902344
+15    16073.113281
+16    17075.308594
+17    18077.488281
+18    19079.652344
+19    20081.802734
+20    21083.937500
+21    22086.058594
+22    23088.166016
+23    24090.257812
+24    25092.335938
+25    26094.400391
+26    27096.451172
+27    28098.488281
+28    29100.511719
+29    30102.521484
+30    31104.519531
+31    32106.503906
+32    33108.476562
+33    34110.433594
+34    35112.382812
+35    36114.316406
+36    37116.238281
+37    38118.148438
 Name: FOPT, dtype: float64</t>
         </is>
       </c>
